--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16155" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
   <si>
     <t>##var</t>
   </si>
@@ -79,109 +79,169 @@
     <t>None</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>MoveAttack</t>
+  </si>
+  <si>
+    <t>移动攻击</t>
+  </si>
+  <si>
     <t>HPCure</t>
   </si>
   <si>
     <t>治疗</t>
   </si>
   <si>
+    <t>Knockup_Single</t>
+  </si>
+  <si>
+    <t>单体击飞</t>
+  </si>
+  <si>
+    <t>Knockup_Group</t>
+  </si>
+  <si>
+    <t>群体击飞</t>
+  </si>
+  <si>
+    <t>Silense_Single</t>
+  </si>
+  <si>
+    <t>单体沉默</t>
+  </si>
+  <si>
+    <t>Silense_Group</t>
+  </si>
+  <si>
+    <t>群体沉默</t>
+  </si>
+  <si>
+    <t>Stun_Single</t>
+  </si>
+  <si>
+    <t>单体眩晕</t>
+  </si>
+  <si>
+    <t>Stun_Group</t>
+  </si>
+  <si>
+    <t>群体眩晕</t>
+  </si>
+  <si>
+    <t>Stun_Single_DynamicTime</t>
+  </si>
+  <si>
+    <t>动态时间眩晕：例如Houyi3技能</t>
+  </si>
+  <si>
+    <t>MoveSpeed_Single</t>
+  </si>
+  <si>
+    <t>单体加速</t>
+  </si>
+  <si>
+    <t>MoveSpeed_DynamicGroup</t>
+  </si>
+  <si>
+    <t>动态群体移速</t>
+  </si>
+  <si>
+    <t>MoveSpeed_StaticGroup</t>
+  </si>
+  <si>
+    <t>静态群体移速</t>
+  </si>
+  <si>
+    <t>Hook_Single</t>
+  </si>
+  <si>
+    <t>单体牵引</t>
+  </si>
+  <si>
+    <t>Hook_Group</t>
+  </si>
+  <si>
+    <t>群体牵引</t>
+  </si>
+  <si>
+    <t>Damage_DynamicGroup</t>
+  </si>
+  <si>
+    <t>动态群体伤害</t>
+  </si>
+  <si>
+    <t>Damage_StaticGroup</t>
+  </si>
+  <si>
+    <t>静态群体伤害</t>
+  </si>
+  <si>
     <t>ModifySkill</t>
   </si>
   <si>
-    <t>MoveSpeed_Single</t>
-  </si>
-  <si>
-    <t>单体加速buff</t>
+    <t>替换普攻：例如Arthur1技能</t>
   </si>
   <si>
     <t>ArthurMark</t>
   </si>
   <si>
-    <t>Arthur1技能的标记伤害Buff</t>
-  </si>
-  <si>
-    <t>Silense</t>
-  </si>
-  <si>
-    <t>沉默</t>
+    <t>标记伤害：例如Arthur1技能</t>
   </si>
   <si>
     <t>TargetFlashMove</t>
   </si>
   <si>
+    <t>目标闪现跳跃：例如Arthur1技能</t>
+  </si>
+  <si>
     <t>DirectionFlashMove</t>
   </si>
   <si>
+    <t>方向闪现跳跃：例如Arthur1技能</t>
+  </si>
+  <si>
     <t>ExecuteDamage</t>
   </si>
   <si>
-    <t>Knockup_Group</t>
-  </si>
-  <si>
-    <t>群体击飞</t>
-  </si>
-  <si>
-    <t>Stun_Single_DynamicTime</t>
+    <t>百分比生命伤害：例如Arthur1技能</t>
   </si>
   <si>
     <t>HouyiActiveSkillModify</t>
   </si>
   <si>
-    <t>Houyi主动技能修改buff</t>
+    <t>主动技能修改：例如Houyi</t>
   </si>
   <si>
     <t>Scatter</t>
   </si>
   <si>
+    <t>强化普攻为散射：例如Houyi</t>
+  </si>
+  <si>
     <t>HouyiPasvAttackSpeed</t>
   </si>
   <si>
-    <t>Houyi被动攻速加成buff</t>
+    <t>被动攻速加成：例如Houyi</t>
   </si>
   <si>
     <t>HouyiPasvSkillModify</t>
   </si>
   <si>
-    <t>Houyi被动技能修改Buff</t>
+    <t>被动技能修改：例如Houyi</t>
   </si>
   <si>
     <t>HouyiPasvMultiArrow</t>
   </si>
   <si>
-    <t>Houyi被动技能多重射击Buff</t>
+    <t>被动技能多重射击：例如Houyi</t>
   </si>
   <si>
     <t>HouyiMixedMultiScatter</t>
   </si>
   <si>
-    <t>混合多重射击与散射</t>
-  </si>
-  <si>
-    <t>MoveSpeed_DynamicGroup</t>
-  </si>
-  <si>
-    <t>动态群体移速Buff</t>
-  </si>
-  <si>
-    <t>MoveSpeed_StaticGroup</t>
-  </si>
-  <si>
-    <t>静态群体移速buff</t>
-  </si>
-  <si>
-    <t>Damage_DynamicGroup</t>
-  </si>
-  <si>
-    <t>动态群体伤害</t>
-  </si>
-  <si>
-    <t>Damage_StaticGroup</t>
-  </si>
-  <si>
-    <t>MoveAttack</t>
-  </si>
-  <si>
-    <t>移动攻击</t>
+    <t>混合多重射击与散射：例如Houyi</t>
   </si>
   <si>
     <t>StaticPosTypeEnum</t>
@@ -223,30 +283,33 @@
     <t>Caster</t>
   </si>
   <si>
-    <t>由施术者自己确定：给自己，Arthur的1技能加速buff</t>
+    <t>由施术者自己确定：给自己，例如Arthur的1技能加速buff</t>
   </si>
   <si>
     <t>Indie</t>
   </si>
   <si>
-    <t>由施术者自己确定：区域，Arthur大招(位置固定)产生的持续范围伤害</t>
+    <t>由施术者自己确定：区域，例如Arthur大招(位置固定)产生的持续范围伤害</t>
   </si>
   <si>
     <t>Target</t>
   </si>
   <si>
-    <t>由受击者确定：给目标，Arthur的1技能沉默buff</t>
+    <t>由受击者确定：给目标，例如Arthur的1技能沉默buff</t>
   </si>
   <si>
     <t>Bullet</t>
   </si>
   <si>
-    <t>由受击者确定：Houyi大招命中(位置动态)目标时产生的范围伤害</t>
+    <t>由受击者确定：例如Houyi大招命中(位置动态)目标时产生的范围伤害</t>
   </si>
   <si>
     <t>BulletTypeEnum</t>
   </si>
   <si>
+    <t>子弹寻找目标模式</t>
+  </si>
+  <si>
     <t>UIDirection</t>
   </si>
   <si>
@@ -268,9 +331,15 @@
     <t>BuffSearch</t>
   </si>
   <si>
+    <t>根据Buff计算</t>
+  </si>
+  <si>
     <t>ReleaseModeEnum</t>
   </si>
   <si>
+    <t>技能释放模式</t>
+  </si>
+  <si>
     <t>Click</t>
   </si>
   <si>
@@ -340,22 +409,52 @@
     <t>TargetTeamEnum</t>
   </si>
   <si>
+    <t>作用目标队伍</t>
+  </si>
+  <si>
     <t>Dynamic</t>
   </si>
   <si>
+    <t>动态</t>
+  </si>
+  <si>
     <t>Friend</t>
   </si>
   <si>
+    <t>友军</t>
+  </si>
+  <si>
     <t>Enemy</t>
   </si>
   <si>
+    <t>敌军</t>
+  </si>
+  <si>
     <t>UnitTypeEnum</t>
   </si>
   <si>
+    <t>单位类型</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
     <t>Soldier</t>
   </si>
   <si>
+    <t>小兵</t>
+  </si>
+  <si>
     <t>Tower</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>水晶</t>
   </si>
 </sst>
 </file>
@@ -363,10 +462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -384,46 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -439,22 +500,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,22 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +546,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,17 +576,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,187 +635,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,28 +847,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,47 +922,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,148 +946,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1426,7 +1525,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="2:7">
+    <row r="4" s="2" customFormat="1" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1436,405 +1535,540 @@
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="7:10">
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="7:10">
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="7:10">
-      <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="7:10">
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7">
+        <v>32</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10">
       <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="7:10">
       <c r="G13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10">
       <c r="G14" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10">
       <c r="G16" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="7:10">
       <c r="G20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="7:10">
       <c r="G21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="7:10">
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" t="s">
-        <v>50</v>
+      <c r="G22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10">
       <c r="G24" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
       <c r="G26" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
       <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="7:10">
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
       <c r="G36" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="7:10">
       <c r="G38" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
       <c r="G39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
       <c r="G40" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="7:10">
       <c r="G41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="7:10">
       <c r="G43" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" t="s">
-        <v>92</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
       <c r="G44" t="s">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="J44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="7:10">
       <c r="G45" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="7:10">
       <c r="G47" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="7:10">
       <c r="G48" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="7:10">
       <c r="G49" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>115</v>
+      </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="7:10">
       <c r="G51" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7">
+        <v>118</v>
+      </c>
+      <c r="J52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7">
+        <v>120</v>
+      </c>
+      <c r="J53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="J54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7">
+        <v>124</v>
+      </c>
+      <c r="J55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7">
+        <v>126</v>
+      </c>
+      <c r="J56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="J57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J64" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,33 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Enums.ItemEffectType</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>票</t>
   </si>
   <si>
     <t>BuffTypeEnum</t>
@@ -464,8 +491,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -483,16 +510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,11 +525,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,15 +539,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -545,39 +609,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,30 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,6 +662,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -647,7 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,37 +746,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,109 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,15 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -864,6 +882,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,17 +910,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,7 +925,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,22 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,153 +976,156 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1426,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1445,609 +1475,603 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:10">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="7:10">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" t="s">
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" s="2" customFormat="1" spans="7:10">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="7:10">
-      <c r="G6" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="7:10">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" t="s">
+      <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="2:10">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="7:10">
-      <c r="G8" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="7:10">
       <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>31</v>
+      </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
+        <v>33</v>
+      </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="7:10">
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="7:10">
       <c r="G12" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="7:10">
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="7:10">
       <c r="G14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="7:10">
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="7:10">
       <c r="G16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="7:10">
       <c r="G20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="7:10">
       <c r="G21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="7:10">
-      <c r="G22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
+      <c r="G22" t="s">
         <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="G26" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="7:10">
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" t="s">
         <v>87</v>
       </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="7:10">
       <c r="G38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="7:10">
       <c r="G39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="7:10">
       <c r="G40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" t="s">
         <v>97</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>98</v>
-      </c>
-      <c r="J42" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="7:10">
       <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
         <v>100</v>
-      </c>
-      <c r="J43" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="7:10">
       <c r="G44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" t="s">
         <v>102</v>
-      </c>
-      <c r="J44" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="7:10">
       <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" t="s">
         <v>104</v>
-      </c>
-      <c r="J45" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>107</v>
       </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="7:10">
       <c r="G47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="7:10">
       <c r="G48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="7:10">
       <c r="G49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="7:10">
       <c r="G51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="7:10">
       <c r="G52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="7:10">
       <c r="G53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="7:10">
       <c r="G55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="7:10">
       <c r="G56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="7:10">
       <c r="G57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" t="s">
         <v>130</v>
       </c>
-      <c r="E58" t="s">
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" t="s">
         <v>131</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>132</v>
-      </c>
-      <c r="J58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" spans="7:10">
       <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" t="s">
         <v>134</v>
-      </c>
-      <c r="J59" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="60" spans="7:10">
       <c r="G60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" t="s">
         <v>136</v>
       </c>
-      <c r="J60" t="s">
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" t="s">
+      <c r="J61" t="s">
         <v>138</v>
       </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="G61" t="s">
-        <v>128</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="E62" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="7:10">
       <c r="G62" t="s">
         <v>141</v>
       </c>
@@ -2069,6 +2093,44 @@
       </c>
       <c r="J64" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" t="s">
+        <v>148</v>
+      </c>
+      <c r="G65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="160">
   <si>
     <t>##var</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>混合多重射击与散射：例如Houyi</t>
+  </si>
+  <si>
+    <t>JinxRocketMixed_DynamicGroup</t>
+  </si>
+  <si>
+    <t>Jinx大招混合：计距、百分比、爆炸溅射</t>
+  </si>
+  <si>
+    <t>NSSpeedUpPasv</t>
+  </si>
+  <si>
+    <t>被动类buff：不可叠加的击杀速度加成</t>
   </si>
   <si>
     <t>StaticPosTypeEnum</t>
@@ -489,9 +501,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -504,7 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +531,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,24 +566,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,23 +612,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,19 +635,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,29 +658,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -662,187 +674,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,6 +884,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -889,8 +925,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,17 +963,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -932,39 +972,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,159 +985,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1456,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1475,85 +1484,85 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="2:10">
       <c r="B4" s="2" t="s">
@@ -1593,17 +1602,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:10">
-      <c r="B8" s="3" t="s">
+    <row r="8" s="2" customFormat="1" spans="2:10">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1631,7 +1640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="7:10">
+    <row r="12" s="2" customFormat="1" spans="7:10">
       <c r="G12" t="s">
         <v>37</v>
       </c>
@@ -1746,12 +1755,12 @@
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1827,18 +1836,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
+    <row r="36" spans="7:10">
+      <c r="G36" t="s">
         <v>85</v>
       </c>
-      <c r="E36" t="s">
+      <c r="J36" t="s">
         <v>86</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="7:10">
@@ -1849,12 +1852,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="7:10">
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="7:10">
@@ -1873,18 +1882,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" t="s">
+    <row r="41" spans="7:10">
+      <c r="G41" t="s">
         <v>95</v>
       </c>
-      <c r="E41" t="s">
+      <c r="J41" t="s">
         <v>96</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="42" spans="7:10">
@@ -1895,12 +1898,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="7:10">
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="7:10">
@@ -1919,29 +1928,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
-      <c r="B46" t="s">
+    <row r="46" spans="7:10">
+      <c r="G46" t="s">
         <v>105</v>
       </c>
-      <c r="E46" t="s">
+      <c r="J46" t="s">
         <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="7:10">
       <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
         <v>109</v>
       </c>
-      <c r="J47" t="s">
+      <c r="E48" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="7:10">
       <c r="G48" t="s">
         <v>111</v>
       </c>
@@ -1957,18 +1966,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" t="s">
+    <row r="50" spans="7:10">
+      <c r="G50" t="s">
         <v>115</v>
       </c>
-      <c r="E50" t="s">
+      <c r="J50" t="s">
         <v>116</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -1979,12 +1982,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -1995,18 +2004,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" t="s">
+    <row r="54" spans="7:10">
+      <c r="G54" t="s">
         <v>123</v>
       </c>
-      <c r="E54" t="s">
+      <c r="J54" t="s">
         <v>124</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -2017,12 +2020,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
       <c r="G56" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -2065,29 +2074,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="B62" t="s">
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
         <v>139</v>
       </c>
-      <c r="E62" t="s">
+      <c r="J62" t="s">
         <v>140</v>
-      </c>
-      <c r="G62" t="s">
-        <v>141</v>
-      </c>
-      <c r="J62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="7:10">
       <c r="G63" t="s">
+        <v>141</v>
+      </c>
+      <c r="J63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
         <v>143</v>
       </c>
-      <c r="J63" t="s">
+      <c r="E64" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="7:10">
       <c r="G64" t="s">
         <v>145</v>
       </c>
@@ -2095,31 +2104,31 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
+    <row r="65" spans="7:10">
+      <c r="G65" t="s">
         <v>147</v>
       </c>
-      <c r="E65" t="s">
+      <c r="J65" t="s">
         <v>148</v>
-      </c>
-      <c r="G65" t="s">
-        <v>137</v>
-      </c>
-      <c r="J65" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66" t="s">
         <v>150</v>
       </c>
-      <c r="J66" t="s">
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="67" spans="7:10">
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
       <c r="G67" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J67" t="s">
         <v>153</v>
@@ -2131,6 +2140,22 @@
       </c>
       <c r="J68" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" t="s">
+        <v>156</v>
+      </c>
+      <c r="J69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" t="s">
+        <v>158</v>
+      </c>
+      <c r="J70" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
